--- a/biology/Botanique/Rhodanthe_chlorocephala_subsp._rosea/Rhodanthe_chlorocephala_subsp._rosea.xlsx
+++ b/biology/Botanique/Rhodanthe_chlorocephala_subsp._rosea/Rhodanthe_chlorocephala_subsp._rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodanthe chlorocephala subsp. rosea est une sous-espèce de plante à fleurs de la famille des Asteraceae originaire d'Australie. 
 C'est une plante ornementale. On trouve parfois cette plante semblable à l'Immortelle à bractées, mais plus gracieuse sous les noms vernaculaires d'acroclinie et de rose immortelle.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle de 50 centimètres de haut, à tige ramifiée à la base, d'où partent des rameaux grêles porteurs d'une inflorescence assez large, formée d'écailles légères ; couleur : rose, blanc, rouge.
 La plante demande un sol léger, siliceux et une exposition ensoleillée.
@@ -544,7 +558,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Multiplication par semis.</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonne plante de massif, on la cultive surtout pour sa tenue en vase. On peut la faire sécher, tête en bas pour l'utiliser ensuite dans une composition de bouquet séchés.
 </t>
@@ -605,7 +623,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acroclinium roseum Hook.
 Helipterum roseum (Hook.) Benth.</t>
